--- a/数据整理/stocks/港股/02669-中海物业.xlsx
+++ b/数据整理/stocks/港股/02669-中海物业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,163 +22,253 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
     <t>002685</t>
   </si>
   <si>
+    <t>010583</t>
+  </si>
+  <si>
+    <t>007455</t>
+  </si>
+  <si>
+    <t>005504</t>
+  </si>
+  <si>
+    <t>900008</t>
+  </si>
+  <si>
+    <t>009108</t>
+  </si>
+  <si>
+    <t>009193</t>
+  </si>
+  <si>
     <t>002686</t>
   </si>
   <si>
+    <t>010783</t>
+  </si>
+  <si>
+    <t>900078</t>
+  </si>
+  <si>
+    <t>010613</t>
+  </si>
+  <si>
+    <t>005732</t>
+  </si>
+  <si>
     <t>005142</t>
   </si>
   <si>
     <t>005143</t>
   </si>
   <si>
-    <t>005504</t>
-  </si>
-  <si>
-    <t>005732</t>
-  </si>
-  <si>
-    <t>010583</t>
-  </si>
-  <si>
-    <t>010613</t>
+    <t>010784</t>
   </si>
   <si>
     <t>010614</t>
   </si>
   <si>
-    <t>010783</t>
-  </si>
-  <si>
-    <t>010784</t>
-  </si>
-  <si>
-    <t>007455</t>
-  </si>
-  <si>
-    <t>009108</t>
-  </si>
-  <si>
-    <t>009193</t>
-  </si>
-  <si>
-    <t>900008</t>
-  </si>
-  <si>
-    <t>900078</t>
-  </si>
-  <si>
     <t>中欧丰泓沪港深灵活配置混合A</t>
   </si>
   <si>
+    <t>富国蓝筹精选股票（QDII）美元</t>
+  </si>
+  <si>
+    <t>富国蓝筹精选股票（QDII）人民币</t>
+  </si>
+  <si>
+    <t>汇添富沪港深大盘价值混合</t>
+  </si>
+  <si>
+    <t>中信证券稳健回报混合A</t>
+  </si>
+  <si>
+    <t>富国红利精选混合（QDII）人民币</t>
+  </si>
+  <si>
+    <t>富国红利精选混合（QDII）美元</t>
+  </si>
+  <si>
     <t>中欧丰泓沪港深灵活配置混合C</t>
   </si>
   <si>
+    <t>德邦沪港深龙头混合A</t>
+  </si>
+  <si>
+    <t>中信证券稳健回报混合C</t>
+  </si>
+  <si>
+    <t>中融产业趋势一年定期开放混合A</t>
+  </si>
+  <si>
+    <t>富国臻选成长灵活配置混合</t>
+  </si>
+  <si>
     <t>中融沪港深大消费主题灵活配置混合A</t>
   </si>
   <si>
     <t>中融沪港深大消费主题灵活配置混合C</t>
   </si>
   <si>
-    <t>汇添富沪港深大盘价值混合</t>
-  </si>
-  <si>
-    <t>富国臻选成长灵活配置混合</t>
-  </si>
-  <si>
-    <t>富国蓝筹精选股票（QDII）美元</t>
-  </si>
-  <si>
-    <t>中融产业趋势一年定期开放混合A</t>
+    <t>德邦沪港深龙头混合C</t>
   </si>
   <si>
     <t>中融产业趋势一年定期开放混合C</t>
   </si>
   <si>
-    <t>德邦沪港深龙头混合A</t>
-  </si>
-  <si>
-    <t>德邦沪港深龙头混合C</t>
-  </si>
-  <si>
-    <t>富国蓝筹精选股票（QDII）人民币</t>
-  </si>
-  <si>
-    <t>富国红利精选混合（QDII）人民币</t>
-  </si>
-  <si>
-    <t>富国红利精选混合（QDII）美元</t>
-  </si>
-  <si>
-    <t>中信证券稳健回报混合A</t>
-  </si>
-  <si>
-    <t>中信证券稳健回报混合C</t>
+    <t>29.28</t>
+  </si>
+  <si>
+    <t>29.59</t>
+  </si>
+  <si>
+    <t>14.01</t>
+  </si>
+  <si>
+    <t>14.27</t>
+  </si>
+  <si>
+    <t>7.52</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.35</t>
   </si>
   <si>
     <t>93.73</t>
   </si>
   <si>
+    <t>85.32</t>
+  </si>
+  <si>
+    <t>91.55</t>
+  </si>
+  <si>
+    <t>87.09</t>
+  </si>
+  <si>
+    <t>81.34</t>
+  </si>
+  <si>
+    <t>81.17</t>
+  </si>
+  <si>
+    <t>80.91</t>
+  </si>
+  <si>
+    <t>75.06</t>
+  </si>
+  <si>
     <t>89.60</t>
   </si>
   <si>
-    <t>91.55</t>
-  </si>
-  <si>
-    <t>75.06</t>
-  </si>
-  <si>
-    <t>85.32</t>
-  </si>
-  <si>
-    <t>80.91</t>
-  </si>
-  <si>
-    <t>81.17</t>
-  </si>
-  <si>
-    <t>81.34</t>
-  </si>
-  <si>
-    <t>87.09</t>
-  </si>
-  <si>
     <t>7.54</t>
   </si>
   <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
     <t>6.21</t>
   </si>
   <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>2.83</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
-    <t>5.34</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>3.05</t>
+    <t>2.2077</t>
+  </si>
+  <si>
+    <t>1.1570</t>
+  </si>
+  <si>
+    <t>0.5254</t>
+  </si>
+  <si>
+    <t>0.4352</t>
+  </si>
+  <si>
+    <t>0.3046</t>
+  </si>
+  <si>
+    <t>0.2104</t>
+  </si>
+  <si>
+    <t>0.1533</t>
+  </si>
+  <si>
+    <t>0.1467</t>
+  </si>
+  <si>
+    <t>0.1048</t>
+  </si>
+  <si>
+    <t>0.0756</t>
+  </si>
+  <si>
+    <t>0.0441</t>
+  </si>
+  <si>
+    <t>0.0292</t>
+  </si>
+  <si>
+    <t>0.0262</t>
+  </si>
+  <si>
+    <t>0.0106</t>
   </si>
 </sst>
 </file>
@@ -536,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,325 +648,427 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02669-中海物业.xlsx
+++ b/数据整理/stocks/港股/02669-中海物业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8794</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5553</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4318</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02669-中海物业.xlsx
+++ b/数据整理/stocks/港股/02669-中海物业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2360,4 +2361,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02669-中海物业.xlsx
+++ b/数据整理/stocks/港股/02669-中海物业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2369,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,17 +2381,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2400,14 +2421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.53</v>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2416,14 +2459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.32</v>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2124</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2432,13 +2497,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6497</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5782</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4647</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>6.89</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02669-中海物业.xlsx
+++ b/数据整理/stocks/港股/02669-中海物业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,17 +2894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2913,14 +2934,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.44</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2929,14 +2972,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.53</v>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2945,14 +3010,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.32</v>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5901</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2961,13 +3048,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7413</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6839</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6275</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5860</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.89</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02669-中海物业.xlsx
+++ b/数据整理/stocks/港股/02669-中海物业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3775,7 +3776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3786,17 +3787,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3806,14 +3827,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.3</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6118</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3822,14 +3865,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.44</v>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3838,14 +3903,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.53</v>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3854,14 +3941,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.32</v>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2659</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3870,13 +3979,699 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7798</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7371</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3571</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.89</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02669-中海物业.xlsx
+++ b/数据整理/stocks/港股/02669-中海物业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,661 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2077</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010583</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1570</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007455</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>29.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1570</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5254</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>900008</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信证券稳健回报混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4352</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009108</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国红利精选混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3046</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009193</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国红利精选混合（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3046</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2104</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010783</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>81.17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1533</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>900078</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信证券稳健回报混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1467</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010613</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中融产业趋势一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1048</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>75.06</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0756</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.60</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.60</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010784</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>81.17</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010614</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中融产业趋势一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>80.91</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1120,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1171,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>002685</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>65.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.9968</t>
+          <t>4.6118</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1209,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002685</t>
+          <t>501087</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.45</t>
+          <t>44.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>81.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.4187</t>
+          <t>3.4338</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1247,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.05</t>
+          <t>39.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>90.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7543</t>
+          <t>3.2344</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1295,26 +763,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.05</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.7543</t>
+          <t>1.2659</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1323,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3754</t>
+          <t>1.2659</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1361,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009193</t>
+          <t>001605</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）美元</t>
+          <t>富兰克林国海沪港深成长精选股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>34.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3277</t>
+          <t>0.8788</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1399,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009108</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）人民币</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3277</t>
+          <t>0.7798</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1437,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010644</t>
+          <t>013991</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）人民币</t>
+          <t>中欧港股通精选一年持有混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2176</t>
+          <t>0.7371</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1475,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010645</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）美元</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2176</t>
+          <t>0.6003</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1513,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>85.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2132</t>
+          <t>0.5532</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1561,26 +1029,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>90.11</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2050</t>
+          <t>0.4033</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1589,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>011635</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>88.51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1183</t>
+          <t>0.3571</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1627,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100055</t>
+          <t>013992</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国全球科技互联网股票(QDII)</t>
+          <t>中欧港股通精选一年持有混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>85.06</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1034</t>
+          <t>0.3036</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1665,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>82.75</t>
+          <t>84.32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0768</t>
+          <t>0.1209</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1703,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>011636</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>88.51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0644</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1741,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011158</t>
+          <t>004099</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合C</t>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>84.29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1779,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000761</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国富健康优质生活股票</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>87.24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0415</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1817,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>001943</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>82.75</t>
+          <t>87.24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1855,74 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>000761</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>国富健康优质生活股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>86.72</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010614</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中融产业趋势一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +1366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1957,7 +1387,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1997,26 +1427,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.06</t>
+          <t>59.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8794</t>
+          <t>5.3077</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2035,22 +1465,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.26</t>
+          <t>44.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.60</t>
+          <t>74.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.3909</t>
+          <t>4.1564</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2073,26 +1503,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.80</t>
+          <t>40.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.37</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.5553</t>
+          <t>3.5901</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2111,22 +1541,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.40</t>
+          <t>14.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.68</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4072</t>
+          <t>1.4048</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2149,22 +1579,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.40</t>
+          <t>14.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.68</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.4072</t>
+          <t>1.4048</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2177,36 +1607,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>013991</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>中欧港股通精选一年持有混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4318</t>
+          <t>0.7413</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2215,36 +1645,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010644</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）人民币</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1697</t>
+          <t>0.6839</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2253,36 +1683,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010645</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）美元</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.67</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1697</t>
+          <t>0.6275</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2291,36 +1721,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011117</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合C</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>19.47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.60</t>
+          <t>86.72</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.5860</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2329,36 +1759,492 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>000761</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>国富健康优质生活股票</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.87</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2905,7 +2791,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2945,26 +2831,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.37</t>
+          <t>56.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.3077</t>
+          <t>3.8794</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2983,22 +2869,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.03</t>
+          <t>46.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.38</t>
+          <t>82.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.1564</t>
+          <t>3.3909</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3021,26 +2907,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40.75</t>
+          <t>46.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>95.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.5901</t>
+          <t>2.5553</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3059,22 +2945,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.71</t>
+          <t>25.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>82.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4048</t>
+          <t>1.4072</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3097,22 +2983,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.71</t>
+          <t>25.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>82.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.4048</t>
+          <t>1.4072</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3125,36 +3011,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013991</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧港股通精选一年持有混合A</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.87</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7413</t>
+          <t>0.4318</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -3163,36 +3049,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>010644</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6839</t>
+          <t>0.1697</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -3201,36 +3087,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>010645</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>84.67</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6275</t>
+          <t>0.1697</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -3239,36 +3125,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>011117</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>82.60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5860</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3277,492 +3163,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011635</t>
+          <t>000761</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国港股通策略精选混合型证券投资基金A</t>
+          <t>国富健康优质生活股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76.88</t>
+          <t>88.87</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4518</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>013992</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧港股通精选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3064</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011117</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>74.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2256</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>862001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1572</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>862011</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1572</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>862012</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1572</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011349</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.51</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0906</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>160125</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方香港优选股票QDII-LOF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0863</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011636</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国港股通策略精选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>76.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0542</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004099</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011350</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>81.51</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000761</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国富健康优质生活股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>84.48</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3797,7 +3227,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3827,36 +3257,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002685</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.23</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>85.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6118</t>
+          <t>4.9968</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3865,36 +3295,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501087</t>
+          <t>002685</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.08</t>
+          <t>46.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.4338</t>
+          <t>3.4187</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3903,36 +3333,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.54</t>
+          <t>31.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.2344</t>
+          <t>1.7543</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3951,26 +3381,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>31.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2659</t>
+          <t>1.7543</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3979,36 +3409,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2659</t>
+          <t>0.3754</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4017,36 +3447,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001605</t>
+          <t>009193</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
+          <t>富国红利精选混合（QDII）美元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34.60</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>86.48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8788</t>
+          <t>0.3277</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -4055,36 +3485,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>009108</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>富国红利精选混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>86.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7798</t>
+          <t>0.3277</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -4093,36 +3523,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>013991</t>
+          <t>010644</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧港股通精选一年持有混合A</t>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7371</t>
+          <t>0.2176</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -4131,36 +3561,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>010645</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.16</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6003</t>
+          <t>0.2176</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -4169,36 +3599,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>011157</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>弘毅远方港股通智选领航混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16.08</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5532</t>
+          <t>0.2132</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -4217,26 +3647,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>85.75</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4033</t>
+          <t>0.2050</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -4245,36 +3675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011635</t>
+          <t>010613</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国港股通策略精选混合型证券投资基金A</t>
+          <t>中融产业趋势一年定期开放混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.51</t>
+          <t>91.76</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3571</t>
+          <t>0.1183</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -4283,36 +3713,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>013992</t>
+          <t>100055</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧港股通精选一年持有混合C</t>
+          <t>富国全球科技互联网股票(QDII)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3036</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -4321,36 +3751,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.32</t>
+          <t>82.75</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1209</t>
+          <t>0.0768</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -4359,36 +3789,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011636</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国港股通策略精选混合型证券投资基金C</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88.51</t>
+          <t>85.03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.0644</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -4397,36 +3827,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004099</t>
+          <t>011158</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+          <t>弘毅远方港股通智选领航混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -4435,36 +3865,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001942</t>
+          <t>000761</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+          <t>国富健康优质生活股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>87.24</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0415</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -4473,36 +3903,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001943</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>87.24</t>
+          <t>82.75</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -4511,36 +3941,74 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000761</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国富健康优质生活股票</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>85.03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4554,128 +4022,660 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.62</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.3</v>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1570</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
-        <v>13.44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.53</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>16</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.89</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02669-中海物业.xlsx
+++ b/数据整理/stocks/港股/02669-中海物业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>18.62</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>20.3</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>13.44</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>13.53</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>14.32</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.89</v>
       </c>
     </row>
@@ -583,6 +600,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0828</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0828</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8870</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6465</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3639</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3023</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国富估值优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012770</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信创新生活混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-2.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>66.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-0.0650</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1360,7 +2687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2252,7 +3579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2764,7 +4091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3200,7 +4527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4016,7 +5343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02669-中海物业.xlsx
+++ b/数据整理/stocks/港股/02669-中海物业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>16.26</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>18.62</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>20.3</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>13.44</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>13.53</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>14.32</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.89</v>
       </c>
     </row>
@@ -600,6 +617,1352 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5813</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0503</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0503</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016464</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证全球合瑞混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7927</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7894</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7152</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5643</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016465</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴证全球合瑞混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3890</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012770</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信创新生活混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国富估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016298</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>016297</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>017451</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国富估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-2.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-0.0891</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1909,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2687,7 +4050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3579,7 +4942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4091,7 +5454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4527,7 +5890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5343,7 +6706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
